--- a/샘플데이터/학생정보테이블.xlsx
+++ b/샘플데이터/학생정보테이블.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\Reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06FF573-0A5A-40AC-B03F-C8E482997D97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="학생정보 테이블 명세" sheetId="2" r:id="rId2"/>
+    <sheet name="학과 테이블" sheetId="3" r:id="rId3"/>
+    <sheet name="성적테이블" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="465">
   <si>
     <t>국어국문</t>
   </si>
@@ -1302,14 +1306,233 @@
   </si>
   <si>
     <t>학번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>교과교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 명세서</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블 설명</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>열 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클형식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL ?</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>외래키</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 테이블 이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK 열이름</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_student</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학생정보테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_dcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당교수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_pro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과목명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_subject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1332,16 +1555,60 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1349,23 +1616,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="6" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 3" xfId="2" xr:uid="{8285C562-F32E-41C9-9EED-F2FAFF6FAA56}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1378,6 +1925,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A484B1-2627-4121-8FD7-10B991128F7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9982200" y="2476500"/>
+          <a:ext cx="9372600" cy="2333625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B99B280-F35F-4935-AE47-F24B1067D18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11353800" y="2476500"/>
+          <a:ext cx="9191625" cy="2486025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1642,11 +2321,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1659,7 +2338,7 @@
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>410</v>
       </c>
@@ -1678,8 +2357,14 @@
       <c r="G1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -1693,22 +2378,22 @@
         <v>401</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>2</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ref="F2:F33" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F2</f>
-        <v>004</v>
+        <f t="shared" ref="G2:G33" ca="1" si="2" xml:space="preserve"> "00" &amp;F2</f>
+        <v>001</v>
       </c>
       <c r="H2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -1722,22 +2407,22 @@
         <v>397</v>
       </c>
       <c r="E3">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F3">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G3" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F3</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -1751,22 +2436,22 @@
         <v>393</v>
       </c>
       <c r="E4">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F4">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F4</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
       </c>
       <c r="H4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -1780,22 +2465,22 @@
         <v>389</v>
       </c>
       <c r="E5">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F5">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G5" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F5</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -1809,22 +2494,22 @@
         <v>385</v>
       </c>
       <c r="E6">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F6">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G6" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F6</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -1838,22 +2523,22 @@
         <v>381</v>
       </c>
       <c r="E7">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F7">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G7" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F7</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -1867,22 +2552,22 @@
         <v>377</v>
       </c>
       <c r="E8">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="F8">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G8" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F8</f>
+        <f t="shared" ca="1" si="2"/>
         <v>003</v>
       </c>
       <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -1896,22 +2581,22 @@
         <v>373</v>
       </c>
       <c r="E9">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F9">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F9</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -1925,22 +2610,22 @@
         <v>369</v>
       </c>
       <c r="E10">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F10">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F10</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
       </c>
       <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -1954,22 +2639,22 @@
         <v>365</v>
       </c>
       <c r="E11">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F11">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
-      </c>
       <c r="G11" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F11</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -1983,22 +2668,22 @@
         <v>361</v>
       </c>
       <c r="E12">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="G12" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F12</f>
+        <f t="shared" ca="1" si="2"/>
         <v>005</v>
       </c>
       <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -2012,22 +2697,22 @@
         <v>357</v>
       </c>
       <c r="E13">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="F13">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G13" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F13</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -2041,22 +2726,22 @@
         <v>353</v>
       </c>
       <c r="E14">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F14">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
       <c r="G14" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F14</f>
+        <f t="shared" ca="1" si="2"/>
         <v>003</v>
       </c>
       <c r="H14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -2070,22 +2755,22 @@
         <v>349</v>
       </c>
       <c r="E15">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F15">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G15" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F15</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -2099,16 +2784,16 @@
         <v>345</v>
       </c>
       <c r="E16">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F16">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G16" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F16</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
       </c>
       <c r="H16" t="s">
         <v>48</v>
@@ -2128,16 +2813,16 @@
         <v>341</v>
       </c>
       <c r="E17">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F17">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G17" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F17</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
       </c>
       <c r="H17" t="s">
         <v>39</v>
@@ -2157,16 +2842,16 @@
         <v>337</v>
       </c>
       <c r="E18">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F18">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G18" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F18</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H18" t="s">
         <v>48</v>
@@ -2186,16 +2871,16 @@
         <v>333</v>
       </c>
       <c r="E19">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F19">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G19" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F19</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H19" t="s">
         <v>10</v>
@@ -2215,16 +2900,16 @@
         <v>329</v>
       </c>
       <c r="E20">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F20">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F20</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H20" t="s">
         <v>10</v>
@@ -2244,16 +2929,16 @@
         <v>325</v>
       </c>
       <c r="E21">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F21">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F21</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H21" t="s">
         <v>10</v>
@@ -2273,16 +2958,16 @@
         <v>321</v>
       </c>
       <c r="E22">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F22">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G22" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F22</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
       </c>
       <c r="H22" t="s">
         <v>48</v>
@@ -2302,16 +2987,16 @@
         <v>317</v>
       </c>
       <c r="E23">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F23">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F23</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H23" t="s">
         <v>5</v>
@@ -2331,16 +3016,16 @@
         <v>313</v>
       </c>
       <c r="E24">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F24">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G24" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F24</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H24" t="s">
         <v>48</v>
@@ -2360,16 +3045,16 @@
         <v>309</v>
       </c>
       <c r="E25">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F25">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F25</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -2389,16 +3074,16 @@
         <v>305</v>
       </c>
       <c r="E26">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F26">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="G26" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F26</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>001</v>
       </c>
       <c r="H26" t="s">
         <v>39</v>
@@ -2418,16 +3103,16 @@
         <v>301</v>
       </c>
       <c r="E27">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F27">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="G27" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F27</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
       </c>
       <c r="H27" t="s">
         <v>39</v>
@@ -2447,16 +3132,16 @@
         <v>297</v>
       </c>
       <c r="E28">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F28">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="G28" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F28</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>005</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -2476,15 +3161,15 @@
         <v>293</v>
       </c>
       <c r="E29">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F29">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="G29" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F29</f>
+        <f t="shared" ca="1" si="2"/>
         <v>002</v>
       </c>
       <c r="H29" t="s">
@@ -2505,16 +3190,16 @@
         <v>289</v>
       </c>
       <c r="E30">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
-      <c r="F30">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G30" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F30</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>004</v>
       </c>
       <c r="H30" t="s">
         <v>5</v>
@@ -2534,16 +3219,16 @@
         <v>285</v>
       </c>
       <c r="E31">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="F31">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="G31" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F31</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>003</v>
       </c>
       <c r="H31" t="s">
         <v>5</v>
@@ -2563,16 +3248,16 @@
         <v>281</v>
       </c>
       <c r="E32">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F32">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="G32" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F32</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>002</v>
       </c>
       <c r="H32" t="s">
         <v>0</v>
@@ -2592,15 +3277,15 @@
         <v>277</v>
       </c>
       <c r="E33">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F33">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>4</v>
       </c>
       <c r="G33" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F33</f>
+        <f t="shared" ca="1" si="2"/>
         <v>004</v>
       </c>
       <c r="H33" t="s">
@@ -2621,16 +3306,16 @@
         <v>273</v>
       </c>
       <c r="E34">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ref="E34:E65" ca="1" si="3">RANDBETWEEN(1,4)</f>
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:F65" ca="1" si="4">RANDBETWEEN(1,5)</f>
         <v>3</v>
       </c>
-      <c r="F34">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
-      </c>
       <c r="G34" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F34</f>
-        <v>004</v>
+        <f t="shared" ref="G34:G65" ca="1" si="5" xml:space="preserve"> "00" &amp;F34</f>
+        <v>003</v>
       </c>
       <c r="H34" t="s">
         <v>0</v>
@@ -2650,16 +3335,16 @@
         <v>269</v>
       </c>
       <c r="E35">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F35">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G35" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F35</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
       </c>
       <c r="H35" t="s">
         <v>48</v>
@@ -2679,15 +3364,15 @@
         <v>265</v>
       </c>
       <c r="E36">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F36">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="G36" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F36</f>
+        <f t="shared" ca="1" si="5"/>
         <v>001</v>
       </c>
       <c r="H36" t="s">
@@ -2708,16 +3393,16 @@
         <v>261</v>
       </c>
       <c r="E37">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F37">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G37" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F37</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H37" t="s">
         <v>0</v>
@@ -2737,16 +3422,16 @@
         <v>257</v>
       </c>
       <c r="E38">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F38">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G38" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F38</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H38" t="s">
         <v>5</v>
@@ -2766,16 +3451,16 @@
         <v>253</v>
       </c>
       <c r="E39">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F39">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G39" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F39</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H39" t="s">
         <v>0</v>
@@ -2795,16 +3480,16 @@
         <v>249</v>
       </c>
       <c r="E40">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="F40">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G40" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F40</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H40" t="s">
         <v>48</v>
@@ -2824,16 +3509,16 @@
         <v>245</v>
       </c>
       <c r="E41">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F41">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="G41" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F41</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
       </c>
       <c r="H41" t="s">
         <v>39</v>
@@ -2853,16 +3538,16 @@
         <v>241</v>
       </c>
       <c r="E42">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F42">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G42" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F42</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H42" t="s">
         <v>10</v>
@@ -2882,15 +3567,15 @@
         <v>237</v>
       </c>
       <c r="E43">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="F43">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="G43" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F43</f>
+        <f t="shared" ca="1" si="5"/>
         <v>003</v>
       </c>
       <c r="H43" t="s">
@@ -2911,16 +3596,16 @@
         <v>233</v>
       </c>
       <c r="E44">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F44">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F44</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
       </c>
       <c r="H44" t="s">
         <v>0</v>
@@ -2940,16 +3625,16 @@
         <v>229</v>
       </c>
       <c r="E45">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F45">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G45" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F45</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H45" t="s">
         <v>10</v>
@@ -2969,15 +3654,15 @@
         <v>225</v>
       </c>
       <c r="E46">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F46">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
       <c r="G46" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F46</f>
+        <f t="shared" ca="1" si="5"/>
         <v>004</v>
       </c>
       <c r="H46" t="s">
@@ -2998,16 +3683,16 @@
         <v>221</v>
       </c>
       <c r="E47">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F47">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G47" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F47</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H47" t="s">
         <v>5</v>
@@ -3027,15 +3712,15 @@
         <v>217</v>
       </c>
       <c r="E48">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F48">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="G48" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F48</f>
+        <f t="shared" ca="1" si="5"/>
         <v>005</v>
       </c>
       <c r="H48" t="s">
@@ -3056,16 +3741,16 @@
         <v>213</v>
       </c>
       <c r="E49">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F49">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G49" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F49</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H49" t="s">
         <v>5</v>
@@ -3085,16 +3770,16 @@
         <v>209</v>
       </c>
       <c r="E50">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="F50">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G50" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F50</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H50" t="s">
         <v>0</v>
@@ -3114,16 +3799,16 @@
         <v>205</v>
       </c>
       <c r="E51">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F51">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G51" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F51</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H51" t="s">
         <v>10</v>
@@ -3143,16 +3828,16 @@
         <v>201</v>
       </c>
       <c r="E52">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F52">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="G52" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F52</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
       </c>
       <c r="H52" t="s">
         <v>48</v>
@@ -3172,16 +3857,16 @@
         <v>197</v>
       </c>
       <c r="E53">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="F53">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
       </c>
       <c r="G53" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F53</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>003</v>
       </c>
       <c r="H53" t="s">
         <v>10</v>
@@ -3201,16 +3886,16 @@
         <v>193</v>
       </c>
       <c r="E54">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F54">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="G54" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F54</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
       </c>
       <c r="H54" t="s">
         <v>39</v>
@@ -3230,16 +3915,16 @@
         <v>189</v>
       </c>
       <c r="E55">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F55">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G55" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F55</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
       </c>
       <c r="H55" t="s">
         <v>10</v>
@@ -3259,16 +3944,16 @@
         <v>185</v>
       </c>
       <c r="E56">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="F56">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G56" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F56</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
       </c>
       <c r="H56" t="s">
         <v>10</v>
@@ -3288,16 +3973,16 @@
         <v>181</v>
       </c>
       <c r="E57">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F57">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G57" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F57</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H57" t="s">
         <v>48</v>
@@ -3317,16 +4002,16 @@
         <v>177</v>
       </c>
       <c r="E58">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F58">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
       </c>
       <c r="G58" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F58</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>004</v>
       </c>
       <c r="H58" t="s">
         <v>48</v>
@@ -3346,16 +4031,16 @@
         <v>173</v>
       </c>
       <c r="E59">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F59">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="G59" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F59</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
       </c>
       <c r="H59" t="s">
         <v>39</v>
@@ -3375,15 +4060,15 @@
         <v>169</v>
       </c>
       <c r="E60">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="F60">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
       <c r="G60" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F60</f>
+        <f t="shared" ca="1" si="5"/>
         <v>005</v>
       </c>
       <c r="H60" t="s">
@@ -3404,16 +4089,16 @@
         <v>165</v>
       </c>
       <c r="E61">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F61">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
       </c>
       <c r="G61" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F61</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>001</v>
       </c>
       <c r="H61" t="s">
         <v>0</v>
@@ -3433,16 +4118,16 @@
         <v>161</v>
       </c>
       <c r="E62">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>4</v>
       </c>
       <c r="F62">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="G62" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F62</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H62" t="s">
         <v>39</v>
@@ -3462,16 +4147,16 @@
         <v>157</v>
       </c>
       <c r="E63">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
       <c r="F63">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="G63" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F63</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
       </c>
       <c r="H63" t="s">
         <v>5</v>
@@ -3491,16 +4176,16 @@
         <v>153</v>
       </c>
       <c r="E64">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="F64">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G64" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F64</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>002</v>
       </c>
       <c r="H64" t="s">
         <v>0</v>
@@ -3520,16 +4205,16 @@
         <v>149</v>
       </c>
       <c r="E65">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F65">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
       </c>
       <c r="G65" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F65</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>005</v>
       </c>
       <c r="H65" t="s">
         <v>48</v>
@@ -3549,16 +4234,16 @@
         <v>145</v>
       </c>
       <c r="E66">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ref="E66:E101" ca="1" si="6">RANDBETWEEN(1,4)</f>
+        <v>1</v>
       </c>
       <c r="F66">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ref="F66:F101" ca="1" si="7">RANDBETWEEN(1,5)</f>
+        <v>4</v>
       </c>
       <c r="G66" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F66</f>
-        <v>003</v>
+        <f t="shared" ref="G66:G97" ca="1" si="8" xml:space="preserve"> "00" &amp;F66</f>
+        <v>004</v>
       </c>
       <c r="H66" t="s">
         <v>5</v>
@@ -3578,16 +4263,16 @@
         <v>141</v>
       </c>
       <c r="E67">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F67">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G67" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F67</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H67" t="s">
         <v>48</v>
@@ -3607,15 +4292,15 @@
         <v>137</v>
       </c>
       <c r="E68">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F68">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="G68" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F68</f>
+        <f t="shared" ca="1" si="8"/>
         <v>004</v>
       </c>
       <c r="H68" t="s">
@@ -3636,16 +4321,16 @@
         <v>133</v>
       </c>
       <c r="E69">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F69">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
-      </c>
       <c r="G69" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F69</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H69" t="s">
         <v>0</v>
@@ -3665,16 +4350,16 @@
         <v>129</v>
       </c>
       <c r="E70">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F70">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G70" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F70</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H70" t="s">
         <v>10</v>
@@ -3694,15 +4379,15 @@
         <v>125</v>
       </c>
       <c r="E71">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F71">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
-      </c>
       <c r="G71" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F71</f>
+        <f t="shared" ca="1" si="8"/>
         <v>001</v>
       </c>
       <c r="H71" t="s">
@@ -3723,16 +4408,16 @@
         <v>121</v>
       </c>
       <c r="E72">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F72">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G72" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F72</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>005</v>
       </c>
       <c r="H72" t="s">
         <v>39</v>
@@ -3752,16 +4437,16 @@
         <v>117</v>
       </c>
       <c r="E73">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F73">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G73" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F73</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H73" t="s">
         <v>48</v>
@@ -3781,16 +4466,16 @@
         <v>113</v>
       </c>
       <c r="E74">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="F74">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G74" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F74</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>005</v>
       </c>
       <c r="H74" t="s">
         <v>0</v>
@@ -3810,16 +4495,16 @@
         <v>109</v>
       </c>
       <c r="E75">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="F75">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G75" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F75</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H75" t="s">
         <v>5</v>
@@ -3839,16 +4524,16 @@
         <v>105</v>
       </c>
       <c r="E76">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F76">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G76" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F76</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H76" t="s">
         <v>39</v>
@@ -3868,16 +4553,16 @@
         <v>101</v>
       </c>
       <c r="E77">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
-      <c r="F77">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
-      </c>
       <c r="G77" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F77</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>002</v>
       </c>
       <c r="H77" t="s">
         <v>39</v>
@@ -3897,16 +4582,16 @@
         <v>97</v>
       </c>
       <c r="E78">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F78">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G78" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F78</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H78" t="s">
         <v>39</v>
@@ -3926,16 +4611,16 @@
         <v>93</v>
       </c>
       <c r="E79">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F79">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G79" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F79</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H79" t="s">
         <v>48</v>
@@ -3955,16 +4640,16 @@
         <v>89</v>
       </c>
       <c r="E80">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F80">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G80" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F80</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H80" t="s">
         <v>48</v>
@@ -3984,16 +4669,16 @@
         <v>85</v>
       </c>
       <c r="E81">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F81">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G81" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F81</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>005</v>
       </c>
       <c r="H81" t="s">
         <v>39</v>
@@ -4013,15 +4698,15 @@
         <v>81</v>
       </c>
       <c r="E82">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F82">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="G82" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F82</f>
+        <f t="shared" ca="1" si="8"/>
         <v>002</v>
       </c>
       <c r="H82" t="s">
@@ -4042,16 +4727,16 @@
         <v>77</v>
       </c>
       <c r="E83">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>3</v>
       </c>
       <c r="F83">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="G83" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F83</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>003</v>
       </c>
       <c r="H83" t="s">
         <v>39</v>
@@ -4071,16 +4756,16 @@
         <v>73</v>
       </c>
       <c r="E84">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
-      <c r="F84">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
-      </c>
       <c r="G84" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F84</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>003</v>
       </c>
       <c r="H84" t="s">
         <v>0</v>
@@ -4100,16 +4785,16 @@
         <v>69</v>
       </c>
       <c r="E85">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F85">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G85" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F85</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>005</v>
       </c>
       <c r="H85" t="s">
         <v>48</v>
@@ -4129,16 +4814,16 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F86">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G86" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F86</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>005</v>
       </c>
       <c r="H86" t="s">
         <v>39</v>
@@ -4158,16 +4843,16 @@
         <v>61</v>
       </c>
       <c r="E87">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F87">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G87" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F87</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H87" t="s">
         <v>0</v>
@@ -4187,16 +4872,16 @@
         <v>57</v>
       </c>
       <c r="E88">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F88">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G88" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F88</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H88" t="s">
         <v>0</v>
@@ -4216,16 +4901,16 @@
         <v>53</v>
       </c>
       <c r="E89">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="F89">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G89" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F89</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H89" t="s">
         <v>48</v>
@@ -4245,16 +4930,16 @@
         <v>49</v>
       </c>
       <c r="E90">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F90">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G90" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F90</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H90" t="s">
         <v>48</v>
@@ -4274,16 +4959,16 @@
         <v>44</v>
       </c>
       <c r="E91">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
-      <c r="F91">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
       <c r="G91" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F91</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
@@ -4303,16 +4988,16 @@
         <v>40</v>
       </c>
       <c r="E92">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="F92">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
       <c r="G92" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F92</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>004</v>
       </c>
       <c r="H92" t="s">
         <v>39</v>
@@ -4332,16 +5017,16 @@
         <v>35</v>
       </c>
       <c r="E93">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F93">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="G93" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F93</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>003</v>
       </c>
       <c r="H93" t="s">
         <v>10</v>
@@ -4361,16 +5046,16 @@
         <v>31</v>
       </c>
       <c r="E94">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F94">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G94" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F94</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H94" t="s">
         <v>10</v>
@@ -4390,16 +5075,16 @@
         <v>27</v>
       </c>
       <c r="E95">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F95">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
       </c>
       <c r="G95" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F95</f>
-        <v>003</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>001</v>
       </c>
       <c r="H95" t="s">
         <v>10</v>
@@ -4419,16 +5104,16 @@
         <v>23</v>
       </c>
       <c r="E96">
-        <f ca="1">RANDBETWEEN(1,4)</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="F96">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="G96" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F96</f>
-        <v>001</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>002</v>
       </c>
       <c r="H96" t="s">
         <v>0</v>
@@ -4448,16 +5133,16 @@
         <v>19</v>
       </c>
       <c r="E97">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F97">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="G97" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F97</f>
-        <v>004</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>002</v>
       </c>
       <c r="H97" t="s">
         <v>0</v>
@@ -4477,16 +5162,16 @@
         <v>15</v>
       </c>
       <c r="E98">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F98">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="G98" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F98</f>
-        <v>001</v>
+        <f t="shared" ref="G98:G129" ca="1" si="9" xml:space="preserve"> "00" &amp;F98</f>
+        <v>002</v>
       </c>
       <c r="H98" t="s">
         <v>10</v>
@@ -4506,16 +5191,16 @@
         <v>11</v>
       </c>
       <c r="E99">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="F99">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="G99" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F99</f>
-        <v>005</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>002</v>
       </c>
       <c r="H99" t="s">
         <v>10</v>
@@ -4535,15 +5220,15 @@
         <v>6</v>
       </c>
       <c r="E100">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
       </c>
       <c r="F100">
-        <f ca="1">RANDBETWEEN(1,5)</f>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="G100" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F100</f>
+        <f t="shared" ca="1" si="9"/>
         <v>002</v>
       </c>
       <c r="H100" t="s">
@@ -4564,16 +5249,16 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <f ca="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
       </c>
       <c r="F101">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
       </c>
       <c r="G101" t="str">
-        <f ca="1" xml:space="preserve"> "00" &amp;F101</f>
-        <v>002</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>005</v>
       </c>
       <c r="H101" t="s">
         <v>0</v>
@@ -4584,4 +5269,3126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB3EFD7-6B67-45E6-A533-5C08C593CE97}">
+  <dimension ref="B1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="9" style="9"/>
+    <col min="259" max="259" width="1.5" style="9" customWidth="1"/>
+    <col min="260" max="260" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="9" style="9"/>
+    <col min="515" max="515" width="1.5" style="9" customWidth="1"/>
+    <col min="516" max="516" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="9" style="9"/>
+    <col min="771" max="771" width="1.5" style="9" customWidth="1"/>
+    <col min="772" max="772" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="9" style="9"/>
+    <col min="1027" max="1027" width="1.5" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="9" style="9"/>
+    <col min="1283" max="1283" width="1.5" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="9" style="9"/>
+    <col min="1539" max="1539" width="1.5" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="9" style="9"/>
+    <col min="1795" max="1795" width="1.5" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="9" style="9"/>
+    <col min="2051" max="2051" width="1.5" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="9" style="9"/>
+    <col min="2307" max="2307" width="1.5" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="9" style="9"/>
+    <col min="2563" max="2563" width="1.5" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="9" style="9"/>
+    <col min="2819" max="2819" width="1.5" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="9" style="9"/>
+    <col min="3075" max="3075" width="1.5" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="9" style="9"/>
+    <col min="3331" max="3331" width="1.5" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="9" style="9"/>
+    <col min="3587" max="3587" width="1.5" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="9" style="9"/>
+    <col min="3843" max="3843" width="1.5" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="9" style="9"/>
+    <col min="4099" max="4099" width="1.5" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="9" style="9"/>
+    <col min="4355" max="4355" width="1.5" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="9" style="9"/>
+    <col min="4611" max="4611" width="1.5" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="9" style="9"/>
+    <col min="4867" max="4867" width="1.5" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="9" style="9"/>
+    <col min="5123" max="5123" width="1.5" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="9" style="9"/>
+    <col min="5379" max="5379" width="1.5" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="9" style="9"/>
+    <col min="5635" max="5635" width="1.5" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="9" style="9"/>
+    <col min="5891" max="5891" width="1.5" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="9" style="9"/>
+    <col min="6147" max="6147" width="1.5" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="9" style="9"/>
+    <col min="6403" max="6403" width="1.5" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="9" style="9"/>
+    <col min="6659" max="6659" width="1.5" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="9" style="9"/>
+    <col min="6915" max="6915" width="1.5" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="9" style="9"/>
+    <col min="7171" max="7171" width="1.5" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="9" style="9"/>
+    <col min="7427" max="7427" width="1.5" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="9" style="9"/>
+    <col min="7683" max="7683" width="1.5" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="9" style="9"/>
+    <col min="7939" max="7939" width="1.5" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="9" style="9"/>
+    <col min="8195" max="8195" width="1.5" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="9" style="9"/>
+    <col min="8451" max="8451" width="1.5" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="9" style="9"/>
+    <col min="8707" max="8707" width="1.5" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="9" style="9"/>
+    <col min="8963" max="8963" width="1.5" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="9" style="9"/>
+    <col min="9219" max="9219" width="1.5" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="9" style="9"/>
+    <col min="9475" max="9475" width="1.5" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="9" style="9"/>
+    <col min="9731" max="9731" width="1.5" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="9" style="9"/>
+    <col min="9987" max="9987" width="1.5" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="9" style="9"/>
+    <col min="10243" max="10243" width="1.5" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="9" style="9"/>
+    <col min="10499" max="10499" width="1.5" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="9" style="9"/>
+    <col min="10755" max="10755" width="1.5" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="9" style="9"/>
+    <col min="11011" max="11011" width="1.5" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="9" style="9"/>
+    <col min="11267" max="11267" width="1.5" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="9" style="9"/>
+    <col min="11523" max="11523" width="1.5" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="9" style="9"/>
+    <col min="11779" max="11779" width="1.5" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="9" style="9"/>
+    <col min="12035" max="12035" width="1.5" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="9" style="9"/>
+    <col min="12291" max="12291" width="1.5" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="9" style="9"/>
+    <col min="12547" max="12547" width="1.5" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="9" style="9"/>
+    <col min="12803" max="12803" width="1.5" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="9" style="9"/>
+    <col min="13059" max="13059" width="1.5" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="9" style="9"/>
+    <col min="13315" max="13315" width="1.5" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="9" style="9"/>
+    <col min="13571" max="13571" width="1.5" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="9" style="9"/>
+    <col min="13827" max="13827" width="1.5" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="9" style="9"/>
+    <col min="14083" max="14083" width="1.5" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="9" style="9"/>
+    <col min="14339" max="14339" width="1.5" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="9" style="9"/>
+    <col min="14595" max="14595" width="1.5" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="9" style="9"/>
+    <col min="14851" max="14851" width="1.5" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="9" style="9"/>
+    <col min="15107" max="15107" width="1.5" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="9" style="9"/>
+    <col min="15363" max="15363" width="1.5" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="9" style="9"/>
+    <col min="15619" max="15619" width="1.5" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="9" style="9"/>
+    <col min="15875" max="15875" width="1.5" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="9" style="9"/>
+    <col min="16131" max="16131" width="1.5" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="27">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C29AB5-AE33-46CB-9E07-1D02AF4CD2D8}">
+  <dimension ref="B1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="9" style="9"/>
+    <col min="259" max="259" width="1.5" style="9" customWidth="1"/>
+    <col min="260" max="260" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="9" style="9"/>
+    <col min="515" max="515" width="1.5" style="9" customWidth="1"/>
+    <col min="516" max="516" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="9" style="9"/>
+    <col min="771" max="771" width="1.5" style="9" customWidth="1"/>
+    <col min="772" max="772" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="9" style="9"/>
+    <col min="1027" max="1027" width="1.5" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="9" style="9"/>
+    <col min="1283" max="1283" width="1.5" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="9" style="9"/>
+    <col min="1539" max="1539" width="1.5" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="9" style="9"/>
+    <col min="1795" max="1795" width="1.5" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="9" style="9"/>
+    <col min="2051" max="2051" width="1.5" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="9" style="9"/>
+    <col min="2307" max="2307" width="1.5" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="9" style="9"/>
+    <col min="2563" max="2563" width="1.5" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="9" style="9"/>
+    <col min="2819" max="2819" width="1.5" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="9" style="9"/>
+    <col min="3075" max="3075" width="1.5" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="9" style="9"/>
+    <col min="3331" max="3331" width="1.5" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="9" style="9"/>
+    <col min="3587" max="3587" width="1.5" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="9" style="9"/>
+    <col min="3843" max="3843" width="1.5" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="9" style="9"/>
+    <col min="4099" max="4099" width="1.5" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="9" style="9"/>
+    <col min="4355" max="4355" width="1.5" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="9" style="9"/>
+    <col min="4611" max="4611" width="1.5" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="9" style="9"/>
+    <col min="4867" max="4867" width="1.5" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="9" style="9"/>
+    <col min="5123" max="5123" width="1.5" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="9" style="9"/>
+    <col min="5379" max="5379" width="1.5" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="9" style="9"/>
+    <col min="5635" max="5635" width="1.5" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="9" style="9"/>
+    <col min="5891" max="5891" width="1.5" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="9" style="9"/>
+    <col min="6147" max="6147" width="1.5" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="9" style="9"/>
+    <col min="6403" max="6403" width="1.5" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="9" style="9"/>
+    <col min="6659" max="6659" width="1.5" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="9" style="9"/>
+    <col min="6915" max="6915" width="1.5" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="9" style="9"/>
+    <col min="7171" max="7171" width="1.5" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="9" style="9"/>
+    <col min="7427" max="7427" width="1.5" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="9" style="9"/>
+    <col min="7683" max="7683" width="1.5" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="9" style="9"/>
+    <col min="7939" max="7939" width="1.5" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="9" style="9"/>
+    <col min="8195" max="8195" width="1.5" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="9" style="9"/>
+    <col min="8451" max="8451" width="1.5" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="9" style="9"/>
+    <col min="8707" max="8707" width="1.5" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="9" style="9"/>
+    <col min="8963" max="8963" width="1.5" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="9" style="9"/>
+    <col min="9219" max="9219" width="1.5" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="9" style="9"/>
+    <col min="9475" max="9475" width="1.5" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="9" style="9"/>
+    <col min="9731" max="9731" width="1.5" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="9" style="9"/>
+    <col min="9987" max="9987" width="1.5" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="9" style="9"/>
+    <col min="10243" max="10243" width="1.5" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="9" style="9"/>
+    <col min="10499" max="10499" width="1.5" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="9" style="9"/>
+    <col min="10755" max="10755" width="1.5" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="9" style="9"/>
+    <col min="11011" max="11011" width="1.5" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="9" style="9"/>
+    <col min="11267" max="11267" width="1.5" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="9" style="9"/>
+    <col min="11523" max="11523" width="1.5" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="9" style="9"/>
+    <col min="11779" max="11779" width="1.5" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="9" style="9"/>
+    <col min="12035" max="12035" width="1.5" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="9" style="9"/>
+    <col min="12291" max="12291" width="1.5" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="9" style="9"/>
+    <col min="12547" max="12547" width="1.5" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="9" style="9"/>
+    <col min="12803" max="12803" width="1.5" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="9" style="9"/>
+    <col min="13059" max="13059" width="1.5" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="9" style="9"/>
+    <col min="13315" max="13315" width="1.5" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="9" style="9"/>
+    <col min="13571" max="13571" width="1.5" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="9" style="9"/>
+    <col min="13827" max="13827" width="1.5" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="9" style="9"/>
+    <col min="14083" max="14083" width="1.5" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="9" style="9"/>
+    <col min="14339" max="14339" width="1.5" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="9" style="9"/>
+    <col min="14595" max="14595" width="1.5" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="9" style="9"/>
+    <col min="14851" max="14851" width="1.5" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="9" style="9"/>
+    <col min="15107" max="15107" width="1.5" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="9" style="9"/>
+    <col min="15363" max="15363" width="1.5" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="9" style="9"/>
+    <col min="15619" max="15619" width="1.5" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="9" style="9"/>
+    <col min="15875" max="15875" width="1.5" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="9" style="9"/>
+    <col min="16131" max="16131" width="1.5" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>411</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="27">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AF462-A338-4EF2-84C6-B7900A0D20FA}">
+  <dimension ref="B1:L20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="13" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="9" style="9"/>
+    <col min="259" max="259" width="1.5" style="9" customWidth="1"/>
+    <col min="260" max="260" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="9" style="9"/>
+    <col min="515" max="515" width="1.5" style="9" customWidth="1"/>
+    <col min="516" max="516" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="9" style="9"/>
+    <col min="771" max="771" width="1.5" style="9" customWidth="1"/>
+    <col min="772" max="772" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="9" style="9"/>
+    <col min="1027" max="1027" width="1.5" style="9" customWidth="1"/>
+    <col min="1028" max="1028" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="9" style="9"/>
+    <col min="1283" max="1283" width="1.5" style="9" customWidth="1"/>
+    <col min="1284" max="1284" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="9" style="9"/>
+    <col min="1539" max="1539" width="1.5" style="9" customWidth="1"/>
+    <col min="1540" max="1540" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="9" style="9"/>
+    <col min="1795" max="1795" width="1.5" style="9" customWidth="1"/>
+    <col min="1796" max="1796" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="9" style="9"/>
+    <col min="2051" max="2051" width="1.5" style="9" customWidth="1"/>
+    <col min="2052" max="2052" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="9" style="9"/>
+    <col min="2307" max="2307" width="1.5" style="9" customWidth="1"/>
+    <col min="2308" max="2308" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="9" style="9"/>
+    <col min="2563" max="2563" width="1.5" style="9" customWidth="1"/>
+    <col min="2564" max="2564" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="9" style="9"/>
+    <col min="2819" max="2819" width="1.5" style="9" customWidth="1"/>
+    <col min="2820" max="2820" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="9" style="9"/>
+    <col min="3075" max="3075" width="1.5" style="9" customWidth="1"/>
+    <col min="3076" max="3076" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="9" style="9"/>
+    <col min="3331" max="3331" width="1.5" style="9" customWidth="1"/>
+    <col min="3332" max="3332" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="9" style="9"/>
+    <col min="3587" max="3587" width="1.5" style="9" customWidth="1"/>
+    <col min="3588" max="3588" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="9" style="9"/>
+    <col min="3843" max="3843" width="1.5" style="9" customWidth="1"/>
+    <col min="3844" max="3844" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="9" style="9"/>
+    <col min="4099" max="4099" width="1.5" style="9" customWidth="1"/>
+    <col min="4100" max="4100" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="9" style="9"/>
+    <col min="4355" max="4355" width="1.5" style="9" customWidth="1"/>
+    <col min="4356" max="4356" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="9" style="9"/>
+    <col min="4611" max="4611" width="1.5" style="9" customWidth="1"/>
+    <col min="4612" max="4612" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="9" style="9"/>
+    <col min="4867" max="4867" width="1.5" style="9" customWidth="1"/>
+    <col min="4868" max="4868" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="9" style="9"/>
+    <col min="5123" max="5123" width="1.5" style="9" customWidth="1"/>
+    <col min="5124" max="5124" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="9" style="9"/>
+    <col min="5379" max="5379" width="1.5" style="9" customWidth="1"/>
+    <col min="5380" max="5380" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="9" style="9"/>
+    <col min="5635" max="5635" width="1.5" style="9" customWidth="1"/>
+    <col min="5636" max="5636" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="9" style="9"/>
+    <col min="5891" max="5891" width="1.5" style="9" customWidth="1"/>
+    <col min="5892" max="5892" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="9" style="9"/>
+    <col min="6147" max="6147" width="1.5" style="9" customWidth="1"/>
+    <col min="6148" max="6148" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="9" style="9"/>
+    <col min="6403" max="6403" width="1.5" style="9" customWidth="1"/>
+    <col min="6404" max="6404" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="9" style="9"/>
+    <col min="6659" max="6659" width="1.5" style="9" customWidth="1"/>
+    <col min="6660" max="6660" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="9" style="9"/>
+    <col min="6915" max="6915" width="1.5" style="9" customWidth="1"/>
+    <col min="6916" max="6916" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="9" style="9"/>
+    <col min="7171" max="7171" width="1.5" style="9" customWidth="1"/>
+    <col min="7172" max="7172" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="9" style="9"/>
+    <col min="7427" max="7427" width="1.5" style="9" customWidth="1"/>
+    <col min="7428" max="7428" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="9" style="9"/>
+    <col min="7683" max="7683" width="1.5" style="9" customWidth="1"/>
+    <col min="7684" max="7684" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="9" style="9"/>
+    <col min="7939" max="7939" width="1.5" style="9" customWidth="1"/>
+    <col min="7940" max="7940" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="9" style="9"/>
+    <col min="8195" max="8195" width="1.5" style="9" customWidth="1"/>
+    <col min="8196" max="8196" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="9" style="9"/>
+    <col min="8451" max="8451" width="1.5" style="9" customWidth="1"/>
+    <col min="8452" max="8452" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="9" style="9"/>
+    <col min="8707" max="8707" width="1.5" style="9" customWidth="1"/>
+    <col min="8708" max="8708" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="9" style="9"/>
+    <col min="8963" max="8963" width="1.5" style="9" customWidth="1"/>
+    <col min="8964" max="8964" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="9" style="9"/>
+    <col min="9219" max="9219" width="1.5" style="9" customWidth="1"/>
+    <col min="9220" max="9220" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="9" style="9"/>
+    <col min="9475" max="9475" width="1.5" style="9" customWidth="1"/>
+    <col min="9476" max="9476" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="9" style="9"/>
+    <col min="9731" max="9731" width="1.5" style="9" customWidth="1"/>
+    <col min="9732" max="9732" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="9" style="9"/>
+    <col min="9987" max="9987" width="1.5" style="9" customWidth="1"/>
+    <col min="9988" max="9988" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="9" style="9"/>
+    <col min="10243" max="10243" width="1.5" style="9" customWidth="1"/>
+    <col min="10244" max="10244" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="9" style="9"/>
+    <col min="10499" max="10499" width="1.5" style="9" customWidth="1"/>
+    <col min="10500" max="10500" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="9" style="9"/>
+    <col min="10755" max="10755" width="1.5" style="9" customWidth="1"/>
+    <col min="10756" max="10756" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="9" style="9"/>
+    <col min="11011" max="11011" width="1.5" style="9" customWidth="1"/>
+    <col min="11012" max="11012" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="9" style="9"/>
+    <col min="11267" max="11267" width="1.5" style="9" customWidth="1"/>
+    <col min="11268" max="11268" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="9" style="9"/>
+    <col min="11523" max="11523" width="1.5" style="9" customWidth="1"/>
+    <col min="11524" max="11524" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="9" style="9"/>
+    <col min="11779" max="11779" width="1.5" style="9" customWidth="1"/>
+    <col min="11780" max="11780" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="9" style="9"/>
+    <col min="12035" max="12035" width="1.5" style="9" customWidth="1"/>
+    <col min="12036" max="12036" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="9" style="9"/>
+    <col min="12291" max="12291" width="1.5" style="9" customWidth="1"/>
+    <col min="12292" max="12292" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="9" style="9"/>
+    <col min="12547" max="12547" width="1.5" style="9" customWidth="1"/>
+    <col min="12548" max="12548" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="9" style="9"/>
+    <col min="12803" max="12803" width="1.5" style="9" customWidth="1"/>
+    <col min="12804" max="12804" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="9" style="9"/>
+    <col min="13059" max="13059" width="1.5" style="9" customWidth="1"/>
+    <col min="13060" max="13060" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="9" style="9"/>
+    <col min="13315" max="13315" width="1.5" style="9" customWidth="1"/>
+    <col min="13316" max="13316" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="9" style="9"/>
+    <col min="13571" max="13571" width="1.5" style="9" customWidth="1"/>
+    <col min="13572" max="13572" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="9" style="9"/>
+    <col min="13827" max="13827" width="1.5" style="9" customWidth="1"/>
+    <col min="13828" max="13828" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="9" style="9"/>
+    <col min="14083" max="14083" width="1.5" style="9" customWidth="1"/>
+    <col min="14084" max="14084" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="9" style="9"/>
+    <col min="14339" max="14339" width="1.5" style="9" customWidth="1"/>
+    <col min="14340" max="14340" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="9" style="9"/>
+    <col min="14595" max="14595" width="1.5" style="9" customWidth="1"/>
+    <col min="14596" max="14596" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="9" style="9"/>
+    <col min="14851" max="14851" width="1.5" style="9" customWidth="1"/>
+    <col min="14852" max="14852" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="9" style="9"/>
+    <col min="15107" max="15107" width="1.5" style="9" customWidth="1"/>
+    <col min="15108" max="15108" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="9" style="9"/>
+    <col min="15363" max="15363" width="1.5" style="9" customWidth="1"/>
+    <col min="15364" max="15364" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="9" style="9"/>
+    <col min="15619" max="15619" width="1.5" style="9" customWidth="1"/>
+    <col min="15620" max="15620" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="9" style="9"/>
+    <col min="15875" max="15875" width="1.5" style="9" customWidth="1"/>
+    <col min="15876" max="15876" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="9" style="9"/>
+    <col min="16131" max="16131" width="1.5" style="9" customWidth="1"/>
+    <col min="16132" max="16132" width="10.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="9.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="12.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="9.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="13.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="9.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>424</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="25">
+        <v>3</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="25">
+        <v>4</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="25">
+        <v>5</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25">
+        <v>6</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="25">
+        <v>8</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="25">
+        <v>9</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
+        <v>10</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>15</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="27">
+        <v>16</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>